--- a/EGE/Gen/EGE2022/multiple.xlsx
+++ b/EGE/Gen/EGE2022/multiple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="100">
   <si>
     <t>ID операции</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Макаронная фабрика</t>
-  </si>
-  <si>
-    <t>Чай-Кофе-Сахар</t>
   </si>
   <si>
     <t>Район</t>
@@ -24156,9 +24153,6 @@
       <c r="E29">
         <v>0.2</v>
       </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
@@ -24176,9 +24170,6 @@
       <c r="E30">
         <v>0.6</v>
       </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
@@ -24195,9 +24186,6 @@
       </c>
       <c r="E31">
         <v>0.2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -24438,10 +24426,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -24449,10 +24437,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -24460,43 +24448,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -24504,21 +24492,21 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -24526,21 +24514,21 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -24548,10 +24536,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -24559,32 +24547,32 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -24592,10 +24580,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/EGE/Gen/EGE2022/multiple.xlsx
+++ b/EGE/Gen/EGE2022/multiple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7913" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7903" uniqueCount="104">
   <si>
     <t>ID операции</t>
   </si>
@@ -273,25 +273,13 @@
     <t>Макаронная фабрика</t>
   </si>
   <si>
+    <t>Чай-Кофе-Сахар</t>
+  </si>
+  <si>
     <t>Район</t>
   </si>
   <si>
     <t>Адрес</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>M16</t>
   </si>
   <si>
     <t>Заречный</t>
@@ -340,21 +328,6 @@
   </si>
   <si>
     <t>ул. Гагарина, 6</t>
-  </si>
-  <si>
-    <t>Пушкинская, 9</t>
-  </si>
-  <si>
-    <t>Заводская, 6</t>
-  </si>
-  <si>
-    <t>ул. Металлургов, 30</t>
-  </si>
-  <si>
-    <t>ул. Сталеваров, 22</t>
-  </si>
-  <si>
-    <t>Элеваторная, 10</t>
   </si>
 </sst>
 </file>
@@ -717,6 +690,15 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -59541,6 +59523,14 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -60118,6 +60108,9 @@
       <c r="E29">
         <v>0.3</v>
       </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
@@ -60135,6 +60128,9 @@
       <c r="E30">
         <v>0.6</v>
       </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
@@ -60152,6 +60148,9 @@
       <c r="E31">
         <v>0.6</v>
       </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
@@ -60429,6 +60428,9 @@
       <c r="E45">
         <v>0.6</v>
       </c>
+      <c r="F45" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
@@ -60445,6 +60447,9 @@
       </c>
       <c r="E46">
         <v>0.3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -60454,54 +60459,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -60509,87 +60519,87 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -60597,76 +60607,21 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
